--- a/Private/Minh/4. Timelog/PM_TimeLog_Minh.xlsx
+++ b/Private/Minh/4. Timelog/PM_TimeLog_Minh.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/Capstone-Project/Private/Minh/4. Timelog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEAE7C4-11B2-6B44-8C14-B13C285EC8E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2927450A-D62E-FD47-9AE1-D066A5C013F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
     <sheet name="Đạt Huỳnh" sheetId="8" r:id="rId2"/>
     <sheet name="Anh Minh" sheetId="9" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="96">
   <si>
     <t>Work in period</t>
   </si>
@@ -300,14 +300,33 @@
   </si>
   <si>
     <t>Setting and research QGIS</t>
+  </si>
+  <si>
+    <t>28/10/2019</t>
+  </si>
+  <si>
+    <t>29/10/2019</t>
+  </si>
+  <si>
+    <t>30/10/2019</t>
+  </si>
+  <si>
+    <t>Create Risk Management Plan</t>
+  </si>
+  <si>
+    <t>Create Quality Management Plan</t>
+  </si>
+  <si>
+    <t>Install React native</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -851,7 +870,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1029,6 +1048,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4069,7 +4094,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4547,10 +4572,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E6E6FC-AA3E-4AB8-932A-DA22E440EB21}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5003,8 +5028,202 @@
       </c>
       <c r="I19" s="68"/>
     </row>
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>2</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="8">
+        <v>6</v>
+      </c>
+      <c r="G20" s="8">
+        <v>5</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
+        <v>2</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="8">
+        <v>4</v>
+      </c>
+      <c r="G21" s="8">
+        <v>4</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
+        <v>2</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="9">
+        <v>4</v>
+      </c>
+      <c r="G22" s="9">
+        <v>4</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
+        <v>2</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="73">
+        <v>43476</v>
+      </c>
+      <c r="F23" s="9">
+        <v>4</v>
+      </c>
+      <c r="G23" s="9">
+        <v>5</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
+        <v>2</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="74">
+        <v>43507</v>
+      </c>
+      <c r="F24" s="9">
+        <v>5</v>
+      </c>
+      <c r="G24" s="9">
+        <v>5</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
+        <v>2</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="74">
+        <v>43535</v>
+      </c>
+      <c r="F25" s="9">
+        <v>5</v>
+      </c>
+      <c r="G25" s="9">
+        <v>5</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="67">
+        <f>SUM(F20:F26)</f>
+        <v>28</v>
+      </c>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="67">
+        <f>SUM(G20:G26)</f>
+        <v>28</v>
+      </c>
+      <c r="I27" s="68"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="H11:I11"/>
@@ -5016,13 +5235,13 @@
       <formula1>B4</formula1>
       <formula2>B10</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18" xr:uid="{341E1EE5-D8E1-4D3E-B5E1-F16F0CE433C7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18 H20:H26" xr:uid="{341E1EE5-D8E1-4D3E-B5E1-F16F0CE433C7}">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17" xr:uid="{78221911-F4E8-4087-A03B-D5AE7C747B66}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17 C20:C25" xr:uid="{78221911-F4E8-4087-A03B-D5AE7C747B66}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18" xr:uid="{09CE0D58-C7F9-4772-BD74-7E870A32281E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18 C26" xr:uid="{09CE0D58-C7F9-4772-BD74-7E870A32281E}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Private/Minh/4. Timelog/PM_TimeLog_Minh.xlsx
+++ b/Private/Minh/4. Timelog/PM_TimeLog_Minh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/Capstone-Project/Private/Minh/4. Timelog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2927450A-D62E-FD47-9AE1-D066A5C013F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB44793-6385-8A4F-8B56-CDA6108B9374}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="125">
   <si>
     <t>Work in period</t>
   </si>
@@ -317,7 +317,108 @@
     <t>Create Quality Management Plan</t>
   </si>
   <si>
-    <t>Install React native</t>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>31/10/2019</t>
+  </si>
+  <si>
+    <t>Update Risk Management Plan</t>
+  </si>
+  <si>
+    <t>Update Quality Management Plan</t>
+  </si>
+  <si>
+    <t>Create Measurement Plan</t>
+  </si>
+  <si>
+    <t>Update Measurement Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usecase Decription </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete the meeting minutes ; 
+Review document ,  test process </t>
+  </si>
+  <si>
+    <t>Create Chage Management Plan</t>
+  </si>
+  <si>
+    <t>Update Chage Management Plan</t>
+  </si>
+  <si>
+    <t>Update Software Architecture Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present EOMP1 
+Complete the meeting minutes 
+Report document for customer </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Complete the meeting minutes 
+</t>
+  </si>
+  <si>
+    <t>Install with React Native Development</t>
+  </si>
+  <si>
+    <t>Install the android virtual machine</t>
+  </si>
+  <si>
+    <t>React Native application design process</t>
+  </si>
+  <si>
+    <t>Instructions to build applications on Android + iPhone devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review document  
+Complete the meeting minutes 
+</t>
+  </si>
+  <si>
+    <t>Component In React Native
+1. Understand the sequence of a Component's operation
+2. Text Component</t>
+  </si>
+  <si>
+    <t>Component In React Native (p1)
+3. Image Component</t>
+  </si>
+  <si>
+    <t>Component In React Native (p1)
+4. View Component</t>
+  </si>
+  <si>
+    <t>React Navigation</t>
+  </si>
+  <si>
+    <t>Component nested Component</t>
+  </si>
+  <si>
+    <t>Export Component
+Pass parameters to Component</t>
+  </si>
+  <si>
+    <t>Debug with JavaScript
+Debug with React Native</t>
+  </si>
+  <si>
+    <t>Debug with Beyond Javascript</t>
+  </si>
+  <si>
+    <t>Publish Applications to AppStore</t>
+  </si>
+  <si>
+    <t>Publish Applications to Google Store</t>
+  </si>
+  <si>
+    <t>1. Realtime Database
+2. Authentication</t>
   </si>
 </sst>
 </file>
@@ -326,7 +427,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
-    <numFmt numFmtId="166" formatCode="mm/dd/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -399,15 +500,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,6 +532,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="35">
     <border>
@@ -870,7 +977,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1029,9 +1136,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1050,11 +1154,101 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -4127,17 +4321,17 @@
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="72"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -4337,21 +4531,21 @@
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="67">
+      <c r="C11" s="66">
         <f>SUM(F4:F10)</f>
         <v>24</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="67">
+      <c r="H11" s="66">
         <f>SUM(G4:G10)</f>
         <v>24</v>
       </c>
-      <c r="I11" s="68"/>
+      <c r="I11" s="67"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
@@ -4525,21 +4719,21 @@
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="67">
+      <c r="C19" s="66">
         <f>SUM(F12:F18)</f>
         <v>22</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="68"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="67">
+      <c r="H19" s="66">
         <f>SUM(G12:G18)</f>
         <v>34</v>
       </c>
-      <c r="I19" s="68"/>
+      <c r="I19" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4572,10 +4766,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E6E6FC-AA3E-4AB8-932A-DA22E440EB21}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4589,484 +4783,520 @@
     <col min="9" max="9" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="75"/>
     </row>
     <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="72"/>
-    </row>
-    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="79"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="80" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="81">
         <v>1</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="83"/>
+      <c r="E4" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="81">
         <v>4</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="81">
         <v>4</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="85" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="81">
         <v>1</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="81">
+        <v>5</v>
+      </c>
+      <c r="G5" s="81">
+        <v>5</v>
+      </c>
+      <c r="H5" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="88">
+        <v>1</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="88">
+        <v>3</v>
+      </c>
+      <c r="G6" s="88">
+        <v>5</v>
+      </c>
+      <c r="H6" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="91"/>
+    </row>
+    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="88">
+        <v>1</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="88">
+        <v>3</v>
+      </c>
+      <c r="G7" s="88">
+        <v>5</v>
+      </c>
+      <c r="H7" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="91"/>
+    </row>
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="88">
+        <v>1</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="92"/>
+      <c r="E8" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="88">
+        <v>4</v>
+      </c>
+      <c r="G8" s="88">
+        <v>4</v>
+      </c>
+      <c r="H8" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="91"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="88">
+        <v>1</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="D9" s="92"/>
+      <c r="E9" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="88">
         <v>5</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G9" s="88">
         <v>5</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H9" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="I9" s="91"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="95">
+        <f>SUM(F4:F9)</f>
+        <v>24</v>
+      </c>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="95">
+        <f>SUM(G4:G9)</f>
+        <v>28</v>
+      </c>
+      <c r="I10" s="96"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B11" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="81">
+        <v>2</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="81">
+        <v>5</v>
+      </c>
+      <c r="G12" s="81">
+        <v>5</v>
+      </c>
+      <c r="H12" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="81">
+        <v>2</v>
+      </c>
+      <c r="B13" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="81">
+        <v>3</v>
+      </c>
+      <c r="G13" s="81">
+        <v>5</v>
+      </c>
+      <c r="H13" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="81">
+        <v>2</v>
+      </c>
+      <c r="B14" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="C14" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="92"/>
+      <c r="E14" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="88">
+        <v>4</v>
+      </c>
+      <c r="G14" s="88">
+        <v>4</v>
+      </c>
+      <c r="H14" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="91"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="81">
+        <v>2</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="88">
+        <v>7</v>
+      </c>
+      <c r="G15" s="88">
+        <v>5</v>
+      </c>
+      <c r="H15" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="91"/>
+    </row>
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="81">
+        <v>2</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="88">
+        <v>4</v>
+      </c>
+      <c r="G16" s="88">
+        <v>5</v>
+      </c>
+      <c r="H16" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="91"/>
+    </row>
+    <row r="17" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="81">
+        <v>2</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="88">
+        <v>4</v>
+      </c>
+      <c r="G17" s="88">
+        <v>6</v>
+      </c>
+      <c r="H17" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="91"/>
+    </row>
+    <row r="18" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="95">
+        <f>SUM(F12:F17)</f>
+        <v>27</v>
+      </c>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="95">
+        <f>SUM(G12:G17)</f>
+        <v>30</v>
+      </c>
+      <c r="I18" s="96"/>
+    </row>
+    <row r="19" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="66">
+      <c r="E19" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="G19" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="81">
         <v>3</v>
       </c>
-      <c r="G7" s="9">
-        <v>5</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="9">
-        <v>4</v>
-      </c>
-      <c r="G8" s="9">
-        <v>4</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="9">
-        <v>5</v>
-      </c>
-      <c r="G9" s="9">
-        <v>5</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="67">
-        <f>SUM(F4:F10)</f>
-        <v>24</v>
-      </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="67">
-        <f>SUM(G4:G10)</f>
-        <v>28</v>
-      </c>
-      <c r="I11" s="68"/>
-    </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
-        <v>2</v>
-      </c>
-      <c r="B12" s="30" t="s">
+      <c r="B20" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="8">
-        <v>5</v>
-      </c>
-      <c r="G12" s="8">
-        <v>5</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
-        <v>2</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="8">
-        <v>3</v>
-      </c>
-      <c r="G13" s="8">
-        <v>5</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
-        <v>2</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="9">
-        <v>4</v>
-      </c>
-      <c r="G14" s="9">
-        <v>4</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
-        <v>2</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="9">
-        <v>7</v>
-      </c>
-      <c r="G15" s="9">
-        <v>5</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
-        <v>2</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="9">
-        <v>4</v>
-      </c>
-      <c r="G16" s="9">
-        <v>5</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
-        <v>2</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="9">
-        <v>4</v>
-      </c>
-      <c r="G17" s="9">
-        <v>6</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="67">
-        <f>SUM(F12:F18)</f>
-        <v>27</v>
-      </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="67">
-        <f>SUM(G12:G18)</f>
-        <v>30</v>
-      </c>
-      <c r="I19" s="68"/>
-    </row>
-    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
-        <v>2</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>18</v>
+      <c r="C20" s="82" t="s">
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="84" t="s">
         <v>90</v>
       </c>
       <c r="F20" s="8">
         <v>6</v>
       </c>
       <c r="G20" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H20" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
-        <v>2</v>
-      </c>
-      <c r="B21" s="31" t="s">
+    <row r="21" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="81">
+        <v>3</v>
+      </c>
+      <c r="B21" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="82" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="17"/>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="84" t="s">
         <v>91</v>
       </c>
       <c r="F21" s="8">
@@ -5080,18 +5310,18 @@
       </c>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
-        <v>2</v>
-      </c>
-      <c r="B22" s="32" t="s">
+    <row r="22" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="81">
+        <v>3</v>
+      </c>
+      <c r="B22" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="82" t="s">
         <v>61</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="84" t="s">
         <v>92</v>
       </c>
       <c r="F22" s="9">
@@ -5103,50 +5333,50 @@
       <c r="H22" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
-        <v>2</v>
-      </c>
-      <c r="B23" s="32" t="s">
+      <c r="I22" s="91"/>
+    </row>
+    <row r="23" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="81">
+        <v>3</v>
+      </c>
+      <c r="B23" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>18</v>
+      <c r="C23" s="82" t="s">
+        <v>19</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="73">
-        <v>43476</v>
+        <v>94</v>
+      </c>
+      <c r="E23" s="98" t="s">
+        <v>96</v>
       </c>
       <c r="F23" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G23" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
-        <v>2</v>
-      </c>
-      <c r="B24" s="32" t="s">
+      <c r="I23" s="91"/>
+    </row>
+    <row r="24" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="81">
+        <v>3</v>
+      </c>
+      <c r="B24" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>18</v>
+      <c r="C24" s="82" t="s">
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="74">
-        <v>43507</v>
+        <v>97</v>
+      </c>
+      <c r="E24" s="98">
+        <v>43476</v>
       </c>
       <c r="F24" s="9">
         <v>5</v>
@@ -5157,23 +5387,23 @@
       <c r="H24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
-        <v>2</v>
-      </c>
-      <c r="B25" s="32" t="s">
+      <c r="I24" s="91"/>
+    </row>
+    <row r="25" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="81">
+        <v>3</v>
+      </c>
+      <c r="B25" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>18</v>
+      <c r="C25" s="82" t="s">
+        <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="74">
-        <v>43535</v>
+        <v>98</v>
+      </c>
+      <c r="E25" s="98">
+        <v>43507</v>
       </c>
       <c r="F25" s="9">
         <v>5</v>
@@ -5184,65 +5414,1548 @@
       <c r="H25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="I25" s="91"/>
+    </row>
+    <row r="26" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B26" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="67">
-        <f>SUM(F20:F26)</f>
-        <v>28</v>
-      </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="7" t="s">
+      <c r="C26" s="99">
+        <f>SUM(F20:F25)</f>
+        <v>30</v>
+      </c>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="67">
-        <f>SUM(G20:G26)</f>
-        <v>28</v>
-      </c>
-      <c r="I27" s="68"/>
+      <c r="H26" s="99">
+        <f>SUM(G20:G25)</f>
+        <v>30</v>
+      </c>
+      <c r="I26" s="96"/>
+    </row>
+    <row r="27" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="81">
+        <v>4</v>
+      </c>
+      <c r="B28" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="84">
+        <v>43773</v>
+      </c>
+      <c r="F28" s="81">
+        <v>5</v>
+      </c>
+      <c r="G28" s="81">
+        <v>5</v>
+      </c>
+      <c r="H28" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="81">
+        <v>4</v>
+      </c>
+      <c r="B29" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="84">
+        <v>43774</v>
+      </c>
+      <c r="F29" s="81">
+        <v>4</v>
+      </c>
+      <c r="G29" s="81">
+        <v>5</v>
+      </c>
+      <c r="H29" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="81">
+        <v>4</v>
+      </c>
+      <c r="B30" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="100"/>
+      <c r="E30" s="84">
+        <v>43775</v>
+      </c>
+      <c r="F30" s="88">
+        <v>4</v>
+      </c>
+      <c r="G30" s="88">
+        <v>4</v>
+      </c>
+      <c r="H30" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="91"/>
+    </row>
+    <row r="31" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="81">
+        <v>4</v>
+      </c>
+      <c r="B31" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="84">
+        <v>43776</v>
+      </c>
+      <c r="F31" s="88">
+        <v>5</v>
+      </c>
+      <c r="G31" s="88">
+        <v>7</v>
+      </c>
+      <c r="H31" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="91"/>
+    </row>
+    <row r="32" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="81">
+        <v>4</v>
+      </c>
+      <c r="B32" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="92"/>
+      <c r="E32" s="84">
+        <v>43777</v>
+      </c>
+      <c r="F32" s="88">
+        <v>5</v>
+      </c>
+      <c r="G32" s="88">
+        <v>5</v>
+      </c>
+      <c r="H32" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="91"/>
+    </row>
+    <row r="33" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="81">
+        <v>4</v>
+      </c>
+      <c r="B33" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="84">
+        <v>43778</v>
+      </c>
+      <c r="F33" s="88">
+        <v>7</v>
+      </c>
+      <c r="G33" s="88">
+        <v>5</v>
+      </c>
+      <c r="H33" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="91"/>
+    </row>
+    <row r="34" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="95">
+        <f>SUM(F28:F33)</f>
+        <v>30</v>
+      </c>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="95">
+        <f>SUM(G28:G33)</f>
+        <v>31</v>
+      </c>
+      <c r="I34" s="96"/>
+    </row>
+    <row r="35" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="81">
+        <v>5</v>
+      </c>
+      <c r="B36" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="84">
+        <v>43780</v>
+      </c>
+      <c r="F36" s="81">
+        <v>6</v>
+      </c>
+      <c r="G36" s="81">
+        <v>6</v>
+      </c>
+      <c r="H36" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="19"/>
+    </row>
+    <row r="37" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="81">
+        <v>5</v>
+      </c>
+      <c r="B37" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="100"/>
+      <c r="E37" s="84">
+        <v>43781</v>
+      </c>
+      <c r="F37" s="81">
+        <v>4</v>
+      </c>
+      <c r="G37" s="81">
+        <v>4</v>
+      </c>
+      <c r="H37" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="19"/>
+    </row>
+    <row r="38" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="81">
+        <v>5</v>
+      </c>
+      <c r="B38" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="101" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="84">
+        <v>43782</v>
+      </c>
+      <c r="F38" s="88">
+        <v>5</v>
+      </c>
+      <c r="G38" s="88">
+        <v>5</v>
+      </c>
+      <c r="H38" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="91"/>
+    </row>
+    <row r="39" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="81">
+        <v>5</v>
+      </c>
+      <c r="B39" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="84">
+        <v>43783</v>
+      </c>
+      <c r="F39" s="88">
+        <v>5</v>
+      </c>
+      <c r="G39" s="88">
+        <v>5</v>
+      </c>
+      <c r="H39" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="91"/>
+    </row>
+    <row r="40" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="81">
+        <v>5</v>
+      </c>
+      <c r="B40" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="84">
+        <v>43784</v>
+      </c>
+      <c r="F40" s="88">
+        <v>5</v>
+      </c>
+      <c r="G40" s="88">
+        <v>5</v>
+      </c>
+      <c r="H40" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="91"/>
+    </row>
+    <row r="41" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="81">
+        <v>5</v>
+      </c>
+      <c r="B41" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="84">
+        <v>43785</v>
+      </c>
+      <c r="F41" s="88">
+        <v>6</v>
+      </c>
+      <c r="G41" s="81">
+        <v>6</v>
+      </c>
+      <c r="H41" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="91"/>
+    </row>
+    <row r="42" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="95">
+        <f>SUM(F36:F41)</f>
+        <v>31</v>
+      </c>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="95">
+        <f>SUM(G36:G41)</f>
+        <v>31</v>
+      </c>
+      <c r="I42" s="96"/>
+    </row>
+    <row r="43" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="81">
+        <v>6</v>
+      </c>
+      <c r="B44" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="83"/>
+      <c r="E44" s="84">
+        <v>43787</v>
+      </c>
+      <c r="F44" s="81">
+        <v>6</v>
+      </c>
+      <c r="G44" s="81">
+        <v>6</v>
+      </c>
+      <c r="H44" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="19"/>
+    </row>
+    <row r="45" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="81">
+        <v>6</v>
+      </c>
+      <c r="B45" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="83"/>
+      <c r="E45" s="84">
+        <v>43788</v>
+      </c>
+      <c r="F45" s="81">
+        <v>4</v>
+      </c>
+      <c r="G45" s="81">
+        <v>4</v>
+      </c>
+      <c r="H45" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="19"/>
+    </row>
+    <row r="46" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="81">
+        <v>6</v>
+      </c>
+      <c r="B46" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="92"/>
+      <c r="E46" s="84">
+        <v>43789</v>
+      </c>
+      <c r="F46" s="88">
+        <v>5</v>
+      </c>
+      <c r="G46" s="88">
+        <v>6</v>
+      </c>
+      <c r="H46" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="91"/>
+    </row>
+    <row r="47" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="81">
+        <v>6</v>
+      </c>
+      <c r="B47" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="92"/>
+      <c r="E47" s="84">
+        <v>43790</v>
+      </c>
+      <c r="F47" s="88">
+        <v>5</v>
+      </c>
+      <c r="G47" s="81">
+        <v>6</v>
+      </c>
+      <c r="H47" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="91"/>
+    </row>
+    <row r="48" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="81">
+        <v>6</v>
+      </c>
+      <c r="B48" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="84">
+        <v>43791</v>
+      </c>
+      <c r="F48" s="88">
+        <v>5</v>
+      </c>
+      <c r="G48" s="81">
+        <v>6</v>
+      </c>
+      <c r="H48" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="91"/>
+    </row>
+    <row r="49" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="81">
+        <v>6</v>
+      </c>
+      <c r="B49" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="84">
+        <v>43792</v>
+      </c>
+      <c r="F49" s="88">
+        <v>6</v>
+      </c>
+      <c r="G49" s="88">
+        <v>6</v>
+      </c>
+      <c r="H49" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="91"/>
+    </row>
+    <row r="50" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="95">
+        <f>SUM(F44:F49)</f>
+        <v>31</v>
+      </c>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="95">
+        <f>SUM(G44:G49)</f>
+        <v>34</v>
+      </c>
+      <c r="I50" s="96"/>
+    </row>
+    <row r="51" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="81">
+        <v>7</v>
+      </c>
+      <c r="B52" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" s="84">
+        <v>43794</v>
+      </c>
+      <c r="F52" s="81">
+        <v>6</v>
+      </c>
+      <c r="G52" s="81">
+        <v>6</v>
+      </c>
+      <c r="H52" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="19"/>
+    </row>
+    <row r="53" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="81">
+        <v>7</v>
+      </c>
+      <c r="B53" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="83"/>
+      <c r="E53" s="84">
+        <v>43795</v>
+      </c>
+      <c r="F53" s="81">
+        <v>4</v>
+      </c>
+      <c r="G53" s="81">
+        <v>4</v>
+      </c>
+      <c r="H53" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="19"/>
+    </row>
+    <row r="54" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="81">
+        <v>7</v>
+      </c>
+      <c r="B54" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" s="84">
+        <v>43796</v>
+      </c>
+      <c r="F54" s="88">
+        <v>5</v>
+      </c>
+      <c r="G54" s="88">
+        <v>6</v>
+      </c>
+      <c r="H54" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="91"/>
+    </row>
+    <row r="55" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="81">
+        <v>7</v>
+      </c>
+      <c r="B55" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="84">
+        <v>43797</v>
+      </c>
+      <c r="F55" s="88">
+        <v>6</v>
+      </c>
+      <c r="G55" s="81">
+        <v>6</v>
+      </c>
+      <c r="H55" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="91"/>
+    </row>
+    <row r="56" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="81">
+        <v>7</v>
+      </c>
+      <c r="B56" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" s="84">
+        <v>43798</v>
+      </c>
+      <c r="F56" s="88">
+        <v>5</v>
+      </c>
+      <c r="G56" s="81">
+        <v>6</v>
+      </c>
+      <c r="H56" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="91"/>
+    </row>
+    <row r="57" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="81">
+        <v>7</v>
+      </c>
+      <c r="B57" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" s="84">
+        <v>43799</v>
+      </c>
+      <c r="F57" s="88">
+        <v>6</v>
+      </c>
+      <c r="G57" s="88">
+        <v>6</v>
+      </c>
+      <c r="H57" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="91"/>
+    </row>
+    <row r="58" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="95">
+        <f>SUM(F52:F57)</f>
+        <v>32</v>
+      </c>
+      <c r="D58" s="95"/>
+      <c r="E58" s="95"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="95">
+        <f>SUM(G52:G57)</f>
+        <v>34</v>
+      </c>
+      <c r="I58" s="96"/>
+    </row>
+    <row r="59" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" s="80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="81">
+        <v>8</v>
+      </c>
+      <c r="B60" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="E60" s="84">
+        <v>43801</v>
+      </c>
+      <c r="F60" s="81">
+        <v>5</v>
+      </c>
+      <c r="G60" s="81">
+        <v>6</v>
+      </c>
+      <c r="H60" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="19"/>
+    </row>
+    <row r="61" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="81">
+        <v>8</v>
+      </c>
+      <c r="B61" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="83"/>
+      <c r="E61" s="84">
+        <v>43802</v>
+      </c>
+      <c r="F61" s="81">
+        <v>4</v>
+      </c>
+      <c r="G61" s="81">
+        <v>4</v>
+      </c>
+      <c r="H61" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" s="19"/>
+    </row>
+    <row r="62" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="81">
+        <v>8</v>
+      </c>
+      <c r="B62" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="E62" s="84">
+        <v>43803</v>
+      </c>
+      <c r="F62" s="88">
+        <v>5</v>
+      </c>
+      <c r="G62" s="88">
+        <v>6</v>
+      </c>
+      <c r="H62" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" s="91"/>
+    </row>
+    <row r="63" spans="1:9" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="81">
+        <v>8</v>
+      </c>
+      <c r="B63" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="E63" s="84">
+        <v>43804</v>
+      </c>
+      <c r="F63" s="88">
+        <v>5</v>
+      </c>
+      <c r="G63" s="88">
+        <v>6</v>
+      </c>
+      <c r="H63" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="91"/>
+    </row>
+    <row r="64" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="81">
+        <v>8</v>
+      </c>
+      <c r="B64" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="E64" s="84">
+        <v>43805</v>
+      </c>
+      <c r="F64" s="88">
+        <v>5.5</v>
+      </c>
+      <c r="G64" s="88">
+        <v>6</v>
+      </c>
+      <c r="H64" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="91"/>
+    </row>
+    <row r="65" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="81">
+        <v>8</v>
+      </c>
+      <c r="B65" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" s="84">
+        <v>43806</v>
+      </c>
+      <c r="F65" s="88">
+        <v>5.5</v>
+      </c>
+      <c r="G65" s="88">
+        <v>6</v>
+      </c>
+      <c r="H65" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" s="91"/>
+    </row>
+    <row r="66" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="94">
+        <v>8</v>
+      </c>
+      <c r="B66" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="95">
+        <f>SUM(F60:F65)</f>
+        <v>30</v>
+      </c>
+      <c r="D66" s="95"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="95">
+        <f>SUM(G60:G65)</f>
+        <v>34</v>
+      </c>
+      <c r="I66" s="96"/>
+    </row>
+    <row r="67" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="I67" s="80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="81">
+        <v>9</v>
+      </c>
+      <c r="B68" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="E68" s="84">
+        <v>43808</v>
+      </c>
+      <c r="F68" s="81">
+        <v>6</v>
+      </c>
+      <c r="G68" s="81">
+        <v>6</v>
+      </c>
+      <c r="H68" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" s="19"/>
+    </row>
+    <row r="69" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="81">
+        <v>9</v>
+      </c>
+      <c r="B69" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="83"/>
+      <c r="E69" s="84">
+        <v>43809</v>
+      </c>
+      <c r="F69" s="81">
+        <v>4</v>
+      </c>
+      <c r="G69" s="81">
+        <v>4</v>
+      </c>
+      <c r="H69" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" s="19"/>
+    </row>
+    <row r="70" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="81">
+        <v>9</v>
+      </c>
+      <c r="B70" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="E70" s="84">
+        <v>43810</v>
+      </c>
+      <c r="F70" s="88">
+        <v>6</v>
+      </c>
+      <c r="G70" s="88">
+        <v>6</v>
+      </c>
+      <c r="H70" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" s="91"/>
+    </row>
+    <row r="71" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="81">
+        <v>9</v>
+      </c>
+      <c r="B71" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="E71" s="84">
+        <v>43811</v>
+      </c>
+      <c r="F71" s="88">
+        <v>4</v>
+      </c>
+      <c r="G71" s="88">
+        <v>6</v>
+      </c>
+      <c r="H71" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="91"/>
+    </row>
+    <row r="72" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="81">
+        <v>9</v>
+      </c>
+      <c r="B72" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="E72" s="84">
+        <v>43812</v>
+      </c>
+      <c r="F72" s="88">
+        <v>5.5</v>
+      </c>
+      <c r="G72" s="88">
+        <v>6</v>
+      </c>
+      <c r="H72" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="91"/>
+    </row>
+    <row r="73" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="81">
+        <v>9</v>
+      </c>
+      <c r="B73" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="E73" s="84">
+        <v>43813</v>
+      </c>
+      <c r="F73" s="88">
+        <v>6</v>
+      </c>
+      <c r="G73" s="88">
+        <v>6</v>
+      </c>
+      <c r="H73" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="91"/>
+    </row>
+    <row r="74" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="94">
+        <v>9</v>
+      </c>
+      <c r="B74" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="95">
+        <f>SUM(F68:F73)</f>
+        <v>31.5</v>
+      </c>
+      <c r="D74" s="95"/>
+      <c r="E74" s="95"/>
+      <c r="F74" s="96"/>
+      <c r="G74" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="95">
+        <f>SUM(G68:G73)</f>
+        <v>34</v>
+      </c>
+      <c r="I74" s="96"/>
+    </row>
+    <row r="75" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="D75" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="I75" s="80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="81">
+        <v>10</v>
+      </c>
+      <c r="B76" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="102" t="s">
+        <v>122</v>
+      </c>
+      <c r="E76" s="84">
+        <v>43815</v>
+      </c>
+      <c r="F76" s="81">
+        <v>6</v>
+      </c>
+      <c r="G76" s="81">
+        <v>6</v>
+      </c>
+      <c r="H76" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" s="19"/>
+    </row>
+    <row r="77" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="81">
+        <v>10</v>
+      </c>
+      <c r="B77" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" s="100"/>
+      <c r="E77" s="84">
+        <v>43816</v>
+      </c>
+      <c r="F77" s="81">
+        <v>4</v>
+      </c>
+      <c r="G77" s="81">
+        <v>4</v>
+      </c>
+      <c r="H77" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="19"/>
+    </row>
+    <row r="78" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="81">
+        <v>10</v>
+      </c>
+      <c r="B78" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="E78" s="84">
+        <v>43817</v>
+      </c>
+      <c r="F78" s="88">
+        <v>6</v>
+      </c>
+      <c r="G78" s="88">
+        <v>6</v>
+      </c>
+      <c r="H78" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78" s="91"/>
+    </row>
+    <row r="79" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="81">
+        <v>10</v>
+      </c>
+      <c r="B79" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="E79" s="84">
+        <v>43818</v>
+      </c>
+      <c r="F79" s="88">
+        <v>4</v>
+      </c>
+      <c r="G79" s="88">
+        <v>4</v>
+      </c>
+      <c r="H79" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" s="91"/>
+    </row>
+    <row r="80" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="81">
+        <v>10</v>
+      </c>
+      <c r="B80" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="E80" s="84">
+        <v>43819</v>
+      </c>
+      <c r="F80" s="88">
+        <v>5.5</v>
+      </c>
+      <c r="G80" s="88">
+        <v>5.5</v>
+      </c>
+      <c r="H80" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" s="91"/>
+    </row>
+    <row r="81" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="81">
+        <v>10</v>
+      </c>
+      <c r="B81" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="E81" s="84">
+        <v>43820</v>
+      </c>
+      <c r="F81" s="88">
+        <v>6</v>
+      </c>
+      <c r="G81" s="88">
+        <v>6</v>
+      </c>
+      <c r="H81" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" s="91"/>
+    </row>
+    <row r="82" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="94">
+        <v>10</v>
+      </c>
+      <c r="B82" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="95">
+        <f>SUM(F76:F81)</f>
+        <v>31.5</v>
+      </c>
+      <c r="D82" s="95"/>
+      <c r="E82" s="95"/>
+      <c r="F82" s="96"/>
+      <c r="G82" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="95">
+        <f>SUM(G76:G81)</f>
+        <v>31.5</v>
+      </c>
+      <c r="I82" s="96"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
+  <mergeCells count="21">
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{F949ADB3-D0DF-4D38-AB57-F81408690127}">
-      <formula1>B4</formula1>
-      <formula2>B10</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18 H20:H26" xr:uid="{341E1EE5-D8E1-4D3E-B5E1-F16F0CE433C7}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H9 H12:H17 H52:H57 H28:H33 H36:H41 H44:H49 H68:H73 H76:H81 H20:H25 H60:H65" xr:uid="{7F813E7D-E9CF-5A4B-BCFE-F7A8C8AE33A7}">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17 C20:C25" xr:uid="{78221911-F4E8-4087-A03B-D5AE7C747B66}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C68:C73 C60:C65 C20:C25 C28:C33 C36:C41 C44:C49 C52:C57 C14 C76:C81" xr:uid="{7CC723D2-EB92-F04A-BE9A-EA8D8EE3B87E}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18 C26" xr:uid="{09CE0D58-C7F9-4772-BD74-7E870A32281E}">
-      <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 B3" xr:uid="{58AE6A2E-43B9-9F41-97CF-54817366B503}">
+      <formula1>B4</formula1>
+      <formula2>#REF!</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C13 C15:C17" xr:uid="{441D53C1-E437-F94F-B55A-8E03E327318D}">
+      <formula1>"Research,Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B27 B35 B43 B51 B59 B67 B75" xr:uid="{2810C041-86B3-8F4C-ACA8-0CECCB9B5E77}">
+      <formula1>#REF!</formula1>
+      <formula2>B25</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Private/Minh/4. Timelog/PM_TimeLog_Minh.xlsx
+++ b/Private/Minh/4. Timelog/PM_TimeLog_Minh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/Capstone-Project/Private/Minh/4. Timelog/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone-Project\Private\Minh\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB44793-6385-8A4F-8B56-CDA6108B9374}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51542677-8CFE-4047-960C-E389AA12B3A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,12 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1136,6 +1142,81 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1154,17 +1235,11 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1178,91 +1253,22 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
     <cellStyle name="Accent6" xfId="1" builtinId="49"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Siêu kết nối" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Siêu kết nối" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Siêu kết nối" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1280,7 +1286,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3273,16 +3279,16 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="38" width="10.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.83203125" style="14"/>
+    <col min="11" max="38" width="10.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>5</v>
       </c>
@@ -3401,7 +3407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
         <v>66</v>
       </c>
@@ -3453,7 +3459,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42"/>
       <c r="B3" s="41"/>
       <c r="C3" s="43"/>
@@ -3497,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37"/>
       <c r="B4" s="45"/>
       <c r="C4" s="46"/>
@@ -3541,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42"/>
       <c r="B5" s="41"/>
       <c r="C5" s="43"/>
@@ -3585,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47"/>
       <c r="B6" s="48"/>
       <c r="C6" s="49"/>
@@ -3629,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <f>SUM(B2:B6)</f>
         <v>24</v>
@@ -3779,7 +3785,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="51" t="s">
         <v>23</v>
       </c>
@@ -3898,7 +3904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="54" t="s">
         <v>66</v>
       </c>
@@ -3950,7 +3956,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58"/>
       <c r="B10" s="42"/>
       <c r="C10" s="59"/>
@@ -3994,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="61"/>
       <c r="B11" s="37"/>
       <c r="C11" s="62"/>
@@ -4038,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58"/>
       <c r="B12" s="42"/>
       <c r="C12" s="59"/>
@@ -4082,7 +4088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="63"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
@@ -4291,21 +4297,21 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="14"/>
-    <col min="8" max="8" width="12.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="14"/>
+    <col min="7" max="7" width="8.85546875" style="14"/>
+    <col min="8" max="8" width="12.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>65</v>
       </c>
@@ -4320,20 +4326,20 @@
       <c r="H1" s="25"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="68" t="s">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="71"/>
-    </row>
-    <row r="3" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="94"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
@@ -4362,7 +4368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -4387,7 +4393,7 @@
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -4417,7 +4423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -4444,7 +4450,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -4471,7 +4477,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -4496,7 +4502,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -4513,7 +4519,7 @@
       <c r="H9" s="18"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="11"/>
@@ -4524,30 +4530,30 @@
       <c r="H10" s="18"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="91">
         <f>SUM(F4:F10)</f>
         <v>24</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="67"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="92"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="91">
         <f>SUM(G4:G10)</f>
         <v>24</v>
       </c>
-      <c r="I11" s="67"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I11" s="92"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>2</v>
       </c>
@@ -4574,7 +4580,7 @@
       </c>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>2</v>
       </c>
@@ -4603,7 +4609,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>2</v>
       </c>
@@ -4628,7 +4634,7 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>2</v>
       </c>
@@ -4655,7 +4661,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>2</v>
       </c>
@@ -4678,7 +4684,7 @@
       <c r="H16" s="18"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>2</v>
       </c>
@@ -4701,7 +4707,7 @@
       <c r="H17" s="18"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="13"/>
       <c r="C18" s="11"/>
@@ -4712,28 +4718,28 @@
       <c r="H18" s="18"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="66">
+      <c r="C19" s="91">
         <f>SUM(F12:F18)</f>
         <v>22</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="92"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="66">
+      <c r="H19" s="91">
         <f>SUM(G12:G18)</f>
         <v>34</v>
       </c>
-      <c r="I19" s="67"/>
+      <c r="I19" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4768,510 +4774,510 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E6E6FC-AA3E-4AB8-932A-DA22E440EB21}">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="75"/>
-    </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="79"/>
-    </row>
-    <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="102"/>
+    </row>
+    <row r="3" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="80" t="s">
+      <c r="G3" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="80" t="s">
+      <c r="I3" s="70" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="81">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="71">
         <v>1</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="84" t="s">
+      <c r="D4" s="73"/>
+      <c r="E4" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="81">
+      <c r="F4" s="71">
         <v>4</v>
       </c>
-      <c r="G4" s="81">
+      <c r="G4" s="71">
         <v>4</v>
       </c>
-      <c r="H4" s="85" t="s">
+      <c r="H4" s="75" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="81">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="71">
         <v>1</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="81">
+      <c r="F5" s="71">
         <v>5</v>
       </c>
-      <c r="G5" s="81">
+      <c r="G5" s="71">
         <v>5</v>
       </c>
-      <c r="H5" s="85" t="s">
+      <c r="H5" s="75" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="88">
+    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="78">
         <v>1</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="88">
+      <c r="F6" s="78">
         <v>3</v>
       </c>
-      <c r="G6" s="88">
+      <c r="G6" s="78">
         <v>5</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="H6" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="91"/>
-    </row>
-    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="88">
+      <c r="I6" s="81"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="78">
         <v>1</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="87" t="s">
+      <c r="E7" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="88">
+      <c r="F7" s="78">
         <v>3</v>
       </c>
-      <c r="G7" s="88">
+      <c r="G7" s="78">
         <v>5</v>
       </c>
-      <c r="H7" s="85" t="s">
+      <c r="H7" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="91"/>
-    </row>
-    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="88">
+      <c r="I7" s="81"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="78">
         <v>1</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="92"/>
-      <c r="E8" s="93" t="s">
+      <c r="D8" s="82"/>
+      <c r="E8" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="88">
+      <c r="F8" s="78">
         <v>4</v>
       </c>
-      <c r="G8" s="88">
+      <c r="G8" s="78">
         <v>4</v>
       </c>
-      <c r="H8" s="85" t="s">
+      <c r="H8" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="91"/>
-    </row>
-    <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="88">
+      <c r="I8" s="81"/>
+    </row>
+    <row r="9" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="78">
         <v>1</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="93" t="s">
+      <c r="D9" s="82"/>
+      <c r="E9" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="88">
+      <c r="F9" s="78">
         <v>5</v>
       </c>
-      <c r="G9" s="88">
+      <c r="G9" s="78">
         <v>5</v>
       </c>
-      <c r="H9" s="85" t="s">
+      <c r="H9" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="91"/>
-    </row>
-    <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="I9" s="81"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="95">
+      <c r="C10" s="97">
         <f>SUM(F4:F9)</f>
         <v>24</v>
       </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="97" t="s">
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="95">
+      <c r="H10" s="97">
         <f>SUM(G4:G9)</f>
         <v>28</v>
       </c>
-      <c r="I10" s="96"/>
-    </row>
-    <row r="11" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="80" t="s">
+      <c r="I10" s="98"/>
+    </row>
+    <row r="11" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="80" t="s">
+      <c r="F11" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="80" t="s">
+      <c r="G11" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="80" t="s">
+      <c r="I11" s="70" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="81">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="71">
         <v>2</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="87" t="s">
+      <c r="E12" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="81">
+      <c r="F12" s="71">
         <v>5</v>
       </c>
-      <c r="G12" s="81">
+      <c r="G12" s="71">
         <v>5</v>
       </c>
-      <c r="H12" s="85" t="s">
+      <c r="H12" s="75" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="81">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="71">
         <v>2</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="83" t="s">
+      <c r="D13" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="90" t="s">
+      <c r="E13" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="81">
+      <c r="F13" s="71">
         <v>3</v>
       </c>
-      <c r="G13" s="81">
+      <c r="G13" s="71">
         <v>5</v>
       </c>
-      <c r="H13" s="85" t="s">
+      <c r="H13" s="75" t="s">
         <v>20</v>
       </c>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="81">
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="71">
         <v>2</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="92"/>
-      <c r="E14" s="87" t="s">
+      <c r="D14" s="82"/>
+      <c r="E14" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="88">
+      <c r="F14" s="78">
         <v>4</v>
       </c>
-      <c r="G14" s="88">
+      <c r="G14" s="78">
         <v>4</v>
       </c>
-      <c r="H14" s="85" t="s">
+      <c r="H14" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="91"/>
-    </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="81">
+      <c r="I14" s="81"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="71">
         <v>2</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="92" t="s">
+      <c r="D15" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="93" t="s">
+      <c r="E15" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="88">
+      <c r="F15" s="78">
         <v>7</v>
       </c>
-      <c r="G15" s="88">
+      <c r="G15" s="78">
         <v>5</v>
       </c>
-      <c r="H15" s="85" t="s">
+      <c r="H15" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="91"/>
-    </row>
-    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="81">
+      <c r="I15" s="81"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="71">
         <v>2</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="92" t="s">
+      <c r="D16" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="88">
+      <c r="F16" s="78">
         <v>4</v>
       </c>
-      <c r="G16" s="88">
+      <c r="G16" s="78">
         <v>5</v>
       </c>
-      <c r="H16" s="85" t="s">
+      <c r="H16" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="91"/>
-    </row>
-    <row r="17" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="81">
+      <c r="I16" s="81"/>
+    </row>
+    <row r="17" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="71">
         <v>2</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="93" t="s">
+      <c r="E17" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="88">
+      <c r="F17" s="78">
         <v>4</v>
       </c>
-      <c r="G17" s="88">
-        <v>6</v>
-      </c>
-      <c r="H17" s="85" t="s">
+      <c r="G17" s="78">
+        <v>6</v>
+      </c>
+      <c r="H17" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="91"/>
-    </row>
-    <row r="18" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="94" t="s">
+      <c r="I17" s="81"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="95">
+      <c r="C18" s="97">
         <f>SUM(F12:F17)</f>
         <v>27</v>
       </c>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="97" t="s">
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="95">
+      <c r="H18" s="97">
         <f>SUM(G12:G17)</f>
         <v>30</v>
       </c>
-      <c r="I18" s="96"/>
-    </row>
-    <row r="19" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="80" t="s">
+      <c r="I18" s="98"/>
+    </row>
+    <row r="19" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="80" t="s">
+      <c r="D19" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="80" t="s">
+      <c r="E19" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="80" t="s">
+      <c r="F19" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="80" t="s">
+      <c r="G19" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="80" t="s">
+      <c r="I19" s="70" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="81">
+    <row r="20" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="71">
         <v>3</v>
       </c>
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="72" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="84" t="s">
+      <c r="E20" s="74" t="s">
         <v>90</v>
       </c>
       <c r="F20" s="8">
@@ -5285,18 +5291,18 @@
       </c>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="81">
+    <row r="21" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="71">
         <v>3</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="72" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="17"/>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="74" t="s">
         <v>91</v>
       </c>
       <c r="F21" s="8">
@@ -5310,18 +5316,18 @@
       </c>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="81">
+    <row r="22" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="71">
         <v>3</v>
       </c>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="72" t="s">
         <v>61</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="84" t="s">
+      <c r="E22" s="74" t="s">
         <v>92</v>
       </c>
       <c r="F22" s="9">
@@ -5333,22 +5339,22 @@
       <c r="H22" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="91"/>
-    </row>
-    <row r="23" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="81">
+      <c r="I22" s="81"/>
+    </row>
+    <row r="23" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="71">
         <v>3</v>
       </c>
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="72" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="98" t="s">
+      <c r="E23" s="86" t="s">
         <v>96</v>
       </c>
       <c r="F23" s="9">
@@ -5360,22 +5366,22 @@
       <c r="H23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="91"/>
-    </row>
-    <row r="24" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="81">
+      <c r="I23" s="81"/>
+    </row>
+    <row r="24" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="71">
         <v>3</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="72" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="98">
+      <c r="E24" s="86">
         <v>43476</v>
       </c>
       <c r="F24" s="9">
@@ -5387,22 +5393,22 @@
       <c r="H24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="91"/>
-    </row>
-    <row r="25" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="81">
+      <c r="I24" s="81"/>
+    </row>
+    <row r="25" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="71">
         <v>3</v>
       </c>
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="72" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E25" s="98">
+      <c r="E25" s="86">
         <v>43507</v>
       </c>
       <c r="F25" s="9">
@@ -5414,1509 +5420,1522 @@
       <c r="H25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="91"/>
-    </row>
-    <row r="26" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="94" t="s">
+      <c r="I25" s="81"/>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="99">
+      <c r="C26" s="103">
         <f>SUM(F20:F25)</f>
         <v>30</v>
       </c>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="97" t="s">
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="99">
+      <c r="H26" s="103">
         <f>SUM(G20:G25)</f>
         <v>30</v>
       </c>
-      <c r="I26" s="96"/>
-    </row>
-    <row r="27" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="80" t="s">
+      <c r="I26" s="98"/>
+    </row>
+    <row r="27" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="80" t="s">
+      <c r="D27" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="80" t="s">
+      <c r="E27" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="80" t="s">
+      <c r="F27" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="80" t="s">
+      <c r="G27" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="80" t="s">
+      <c r="I27" s="70" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="81">
+    <row r="28" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="71">
         <v>4</v>
       </c>
-      <c r="B28" s="82" t="s">
+      <c r="B28" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="82" t="s">
+      <c r="C28" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="83" t="s">
+      <c r="D28" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="84">
+      <c r="E28" s="74">
         <v>43773</v>
       </c>
-      <c r="F28" s="81">
+      <c r="F28" s="71">
         <v>5</v>
       </c>
-      <c r="G28" s="81">
+      <c r="G28" s="71">
         <v>5</v>
       </c>
-      <c r="H28" s="85" t="s">
+      <c r="H28" s="75" t="s">
         <v>20</v>
       </c>
       <c r="I28" s="19"/>
     </row>
-    <row r="29" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="81">
+    <row r="29" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="71">
         <v>4</v>
       </c>
-      <c r="B29" s="86" t="s">
+      <c r="B29" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="83" t="s">
+      <c r="D29" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="84">
+      <c r="E29" s="74">
         <v>43774</v>
       </c>
-      <c r="F29" s="81">
+      <c r="F29" s="71">
         <v>4</v>
       </c>
-      <c r="G29" s="81">
+      <c r="G29" s="71">
         <v>5</v>
       </c>
-      <c r="H29" s="85" t="s">
+      <c r="H29" s="75" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="19"/>
     </row>
-    <row r="30" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="81">
+    <row r="30" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="71">
         <v>4</v>
       </c>
-      <c r="B30" s="89" t="s">
+      <c r="B30" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="82" t="s">
+      <c r="C30" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="100"/>
-      <c r="E30" s="84">
+      <c r="D30" s="87"/>
+      <c r="E30" s="74">
         <v>43775</v>
       </c>
-      <c r="F30" s="88">
+      <c r="F30" s="78">
         <v>4</v>
       </c>
-      <c r="G30" s="88">
+      <c r="G30" s="78">
         <v>4</v>
       </c>
-      <c r="H30" s="85" t="s">
+      <c r="H30" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="91"/>
-    </row>
-    <row r="31" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="81">
+      <c r="I30" s="81"/>
+    </row>
+    <row r="31" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="71">
         <v>4</v>
       </c>
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="82" t="s">
+      <c r="C31" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="92" t="s">
+      <c r="D31" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="84">
+      <c r="E31" s="74">
         <v>43776</v>
       </c>
-      <c r="F31" s="88">
+      <c r="F31" s="78">
         <v>5</v>
       </c>
-      <c r="G31" s="88">
+      <c r="G31" s="78">
         <v>7</v>
       </c>
-      <c r="H31" s="85" t="s">
+      <c r="H31" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I31" s="91"/>
-    </row>
-    <row r="32" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="81">
+      <c r="I31" s="81"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="71">
         <v>4</v>
       </c>
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="82" t="s">
+      <c r="C32" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="92"/>
-      <c r="E32" s="84">
+      <c r="D32" s="82"/>
+      <c r="E32" s="74">
         <v>43777</v>
       </c>
-      <c r="F32" s="88">
+      <c r="F32" s="78">
         <v>5</v>
       </c>
-      <c r="G32" s="88">
+      <c r="G32" s="78">
         <v>5</v>
       </c>
-      <c r="H32" s="85" t="s">
+      <c r="H32" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="91"/>
-    </row>
-    <row r="33" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="81">
+      <c r="I32" s="81"/>
+    </row>
+    <row r="33" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="71">
         <v>4</v>
       </c>
-      <c r="B33" s="89" t="s">
+      <c r="B33" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="82" t="s">
+      <c r="C33" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="92" t="s">
+      <c r="D33" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="84">
+      <c r="E33" s="74">
         <v>43778</v>
       </c>
-      <c r="F33" s="88">
+      <c r="F33" s="78">
         <v>7</v>
       </c>
-      <c r="G33" s="88">
+      <c r="G33" s="78">
         <v>5</v>
       </c>
-      <c r="H33" s="85" t="s">
+      <c r="H33" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="91"/>
-    </row>
-    <row r="34" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="94" t="s">
+      <c r="I33" s="81"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="95">
+      <c r="C34" s="97">
         <f>SUM(F28:F33)</f>
         <v>30</v>
       </c>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="97" t="s">
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="95">
+      <c r="H34" s="97">
         <f>SUM(G28:G33)</f>
         <v>31</v>
       </c>
-      <c r="I34" s="96"/>
-    </row>
-    <row r="35" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="80" t="s">
+      <c r="I34" s="98"/>
+    </row>
+    <row r="35" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="80" t="s">
+      <c r="C35" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="80" t="s">
+      <c r="D35" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="80" t="s">
+      <c r="E35" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="80" t="s">
+      <c r="F35" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="H35" s="80" t="s">
+      <c r="G35" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I35" s="80" t="s">
+      <c r="I35" s="70" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="81">
+    <row r="36" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="71">
         <v>5</v>
       </c>
-      <c r="B36" s="82" t="s">
+      <c r="B36" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="82" t="s">
+      <c r="C36" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="83" t="s">
+      <c r="D36" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="E36" s="84">
+      <c r="E36" s="74">
         <v>43780</v>
       </c>
-      <c r="F36" s="81">
-        <v>6</v>
-      </c>
-      <c r="G36" s="81">
-        <v>6</v>
-      </c>
-      <c r="H36" s="85" t="s">
+      <c r="F36" s="71">
+        <v>6</v>
+      </c>
+      <c r="G36" s="71">
+        <v>6</v>
+      </c>
+      <c r="H36" s="75" t="s">
         <v>20</v>
       </c>
       <c r="I36" s="19"/>
     </row>
-    <row r="37" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="81">
+    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="71">
         <v>5</v>
       </c>
-      <c r="B37" s="86" t="s">
+      <c r="B37" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="82" t="s">
+      <c r="C37" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="100"/>
-      <c r="E37" s="84">
+      <c r="D37" s="87"/>
+      <c r="E37" s="74">
         <v>43781</v>
       </c>
-      <c r="F37" s="81">
+      <c r="F37" s="71">
         <v>4</v>
       </c>
-      <c r="G37" s="81">
+      <c r="G37" s="71">
         <v>4</v>
       </c>
-      <c r="H37" s="85" t="s">
+      <c r="H37" s="75" t="s">
         <v>20</v>
       </c>
       <c r="I37" s="19"/>
     </row>
-    <row r="38" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="81">
+    <row r="38" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="71">
         <v>5</v>
       </c>
-      <c r="B38" s="89" t="s">
+      <c r="B38" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="82" t="s">
+      <c r="C38" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="101" t="s">
+      <c r="D38" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="E38" s="84">
+      <c r="E38" s="74">
         <v>43782</v>
       </c>
-      <c r="F38" s="88">
+      <c r="F38" s="78">
         <v>5</v>
       </c>
-      <c r="G38" s="88">
+      <c r="G38" s="78">
         <v>5</v>
       </c>
-      <c r="H38" s="85" t="s">
+      <c r="H38" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="91"/>
-    </row>
-    <row r="39" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="81">
+      <c r="I38" s="81"/>
+    </row>
+    <row r="39" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="71">
         <v>5</v>
       </c>
-      <c r="B39" s="89" t="s">
+      <c r="B39" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="82" t="s">
+      <c r="C39" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="92" t="s">
+      <c r="D39" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="84">
+      <c r="E39" s="74">
         <v>43783</v>
       </c>
-      <c r="F39" s="88">
+      <c r="F39" s="78">
         <v>5</v>
       </c>
-      <c r="G39" s="88">
+      <c r="G39" s="78">
         <v>5</v>
       </c>
-      <c r="H39" s="85" t="s">
+      <c r="H39" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="91"/>
-    </row>
-    <row r="40" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="81">
+      <c r="I39" s="81"/>
+    </row>
+    <row r="40" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="71">
         <v>5</v>
       </c>
-      <c r="B40" s="89" t="s">
+      <c r="B40" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="82" t="s">
+      <c r="C40" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="92" t="s">
+      <c r="D40" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="E40" s="84">
+      <c r="E40" s="74">
         <v>43784</v>
       </c>
-      <c r="F40" s="88">
+      <c r="F40" s="78">
         <v>5</v>
       </c>
-      <c r="G40" s="88">
+      <c r="G40" s="78">
         <v>5</v>
       </c>
-      <c r="H40" s="85" t="s">
+      <c r="H40" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="91"/>
-    </row>
-    <row r="41" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="81">
+      <c r="I40" s="81"/>
+    </row>
+    <row r="41" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="71">
         <v>5</v>
       </c>
-      <c r="B41" s="89" t="s">
+      <c r="B41" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="82" t="s">
+      <c r="C41" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="92" t="s">
+      <c r="D41" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="84">
+      <c r="E41" s="74">
         <v>43785</v>
       </c>
-      <c r="F41" s="88">
-        <v>6</v>
-      </c>
-      <c r="G41" s="81">
-        <v>6</v>
-      </c>
-      <c r="H41" s="85" t="s">
+      <c r="F41" s="78">
+        <v>6</v>
+      </c>
+      <c r="G41" s="71">
+        <v>6</v>
+      </c>
+      <c r="H41" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="91"/>
-    </row>
-    <row r="42" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="94" t="s">
+      <c r="I41" s="81"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="94" t="s">
+      <c r="B42" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="95">
+      <c r="C42" s="97">
         <f>SUM(F36:F41)</f>
         <v>31</v>
       </c>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="97" t="s">
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="95">
+      <c r="H42" s="97">
         <f>SUM(G36:G41)</f>
         <v>31</v>
       </c>
-      <c r="I42" s="96"/>
-    </row>
-    <row r="43" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="80" t="s">
+      <c r="I42" s="98"/>
+    </row>
+    <row r="43" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="80" t="s">
+      <c r="B43" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="80" t="s">
+      <c r="C43" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="80" t="s">
+      <c r="D43" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="80" t="s">
+      <c r="E43" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="80" t="s">
+      <c r="F43" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="80" t="s">
+      <c r="G43" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="80" t="s">
+      <c r="I43" s="70" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="81">
-        <v>6</v>
-      </c>
-      <c r="B44" s="82" t="s">
+    <row r="44" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="71">
+        <v>6</v>
+      </c>
+      <c r="B44" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="82" t="s">
+      <c r="C44" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="83"/>
-      <c r="E44" s="84">
+      <c r="D44" s="73"/>
+      <c r="E44" s="74">
         <v>43787</v>
       </c>
-      <c r="F44" s="81">
-        <v>6</v>
-      </c>
-      <c r="G44" s="81">
-        <v>6</v>
-      </c>
-      <c r="H44" s="85" t="s">
+      <c r="F44" s="71">
+        <v>6</v>
+      </c>
+      <c r="G44" s="71">
+        <v>6</v>
+      </c>
+      <c r="H44" s="75" t="s">
         <v>20</v>
       </c>
       <c r="I44" s="19"/>
     </row>
-    <row r="45" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="81">
-        <v>6</v>
-      </c>
-      <c r="B45" s="86" t="s">
+    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="71">
+        <v>6</v>
+      </c>
+      <c r="B45" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="82" t="s">
+      <c r="C45" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="83"/>
-      <c r="E45" s="84">
+      <c r="D45" s="73"/>
+      <c r="E45" s="74">
         <v>43788</v>
       </c>
-      <c r="F45" s="81">
+      <c r="F45" s="71">
         <v>4</v>
       </c>
-      <c r="G45" s="81">
+      <c r="G45" s="71">
         <v>4</v>
       </c>
-      <c r="H45" s="85" t="s">
+      <c r="H45" s="75" t="s">
         <v>20</v>
       </c>
       <c r="I45" s="19"/>
     </row>
-    <row r="46" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="81">
-        <v>6</v>
-      </c>
-      <c r="B46" s="89" t="s">
+    <row r="46" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="71">
+        <v>6</v>
+      </c>
+      <c r="B46" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="82" t="s">
+      <c r="C46" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="92"/>
-      <c r="E46" s="84">
+      <c r="D46" s="82"/>
+      <c r="E46" s="74">
         <v>43789</v>
       </c>
-      <c r="F46" s="88">
+      <c r="F46" s="78">
         <v>5</v>
       </c>
-      <c r="G46" s="88">
-        <v>6</v>
-      </c>
-      <c r="H46" s="85" t="s">
+      <c r="G46" s="78">
+        <v>6</v>
+      </c>
+      <c r="H46" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I46" s="91"/>
-    </row>
-    <row r="47" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="81">
-        <v>6</v>
-      </c>
-      <c r="B47" s="89" t="s">
+      <c r="I46" s="81"/>
+    </row>
+    <row r="47" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="71">
+        <v>6</v>
+      </c>
+      <c r="B47" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="82" t="s">
+      <c r="C47" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="92"/>
-      <c r="E47" s="84">
+      <c r="D47" s="82"/>
+      <c r="E47" s="74">
         <v>43790</v>
       </c>
-      <c r="F47" s="88">
+      <c r="F47" s="78">
         <v>5</v>
       </c>
-      <c r="G47" s="81">
-        <v>6</v>
-      </c>
-      <c r="H47" s="85" t="s">
+      <c r="G47" s="71">
+        <v>6</v>
+      </c>
+      <c r="H47" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I47" s="91"/>
-    </row>
-    <row r="48" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="81">
-        <v>6</v>
-      </c>
-      <c r="B48" s="89" t="s">
+      <c r="I47" s="81"/>
+    </row>
+    <row r="48" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="71">
+        <v>6</v>
+      </c>
+      <c r="B48" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="82" t="s">
+      <c r="C48" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="92" t="s">
+      <c r="D48" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="E48" s="84">
+      <c r="E48" s="74">
         <v>43791</v>
       </c>
-      <c r="F48" s="88">
+      <c r="F48" s="78">
         <v>5</v>
       </c>
-      <c r="G48" s="81">
-        <v>6</v>
-      </c>
-      <c r="H48" s="85" t="s">
+      <c r="G48" s="71">
+        <v>6</v>
+      </c>
+      <c r="H48" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I48" s="91"/>
-    </row>
-    <row r="49" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="81">
-        <v>6</v>
-      </c>
-      <c r="B49" s="89" t="s">
+      <c r="I48" s="81"/>
+    </row>
+    <row r="49" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="71">
+        <v>6</v>
+      </c>
+      <c r="B49" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="82" t="s">
+      <c r="C49" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="92" t="s">
+      <c r="D49" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="84">
+      <c r="E49" s="74">
         <v>43792</v>
       </c>
-      <c r="F49" s="88">
-        <v>6</v>
-      </c>
-      <c r="G49" s="88">
-        <v>6</v>
-      </c>
-      <c r="H49" s="85" t="s">
+      <c r="F49" s="78">
+        <v>6</v>
+      </c>
+      <c r="G49" s="78">
+        <v>6</v>
+      </c>
+      <c r="H49" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I49" s="91"/>
-    </row>
-    <row r="50" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="94" t="s">
+      <c r="I49" s="81"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="94" t="s">
+      <c r="B50" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="95">
+      <c r="C50" s="97">
         <f>SUM(F44:F49)</f>
         <v>31</v>
       </c>
-      <c r="D50" s="95"/>
-      <c r="E50" s="95"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="97" t="s">
+      <c r="D50" s="97"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="98"/>
+      <c r="G50" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="95">
+      <c r="H50" s="97">
         <f>SUM(G44:G49)</f>
         <v>34</v>
       </c>
-      <c r="I50" s="96"/>
-    </row>
-    <row r="51" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="80" t="s">
+      <c r="I50" s="98"/>
+    </row>
+    <row r="51" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="80" t="s">
+      <c r="B51" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="80" t="s">
+      <c r="C51" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="80" t="s">
+      <c r="D51" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="80" t="s">
+      <c r="E51" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="80" t="s">
+      <c r="F51" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="H51" s="80" t="s">
+      <c r="G51" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I51" s="80" t="s">
+      <c r="I51" s="70" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="81">
+    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="71">
         <v>7</v>
       </c>
-      <c r="B52" s="82" t="s">
+      <c r="B52" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="82" t="s">
+      <c r="C52" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="92" t="s">
+      <c r="D52" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="E52" s="84">
+      <c r="E52" s="74">
         <v>43794</v>
       </c>
-      <c r="F52" s="81">
-        <v>6</v>
-      </c>
-      <c r="G52" s="81">
-        <v>6</v>
-      </c>
-      <c r="H52" s="85" t="s">
+      <c r="F52" s="71">
+        <v>6</v>
+      </c>
+      <c r="G52" s="71">
+        <v>6</v>
+      </c>
+      <c r="H52" s="75" t="s">
         <v>20</v>
       </c>
       <c r="I52" s="19"/>
     </row>
-    <row r="53" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="81">
+    <row r="53" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="71">
         <v>7</v>
       </c>
-      <c r="B53" s="86" t="s">
+      <c r="B53" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="82" t="s">
+      <c r="C53" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D53" s="83"/>
-      <c r="E53" s="84">
+      <c r="D53" s="73"/>
+      <c r="E53" s="74">
         <v>43795</v>
       </c>
-      <c r="F53" s="81">
+      <c r="F53" s="71">
         <v>4</v>
       </c>
-      <c r="G53" s="81">
+      <c r="G53" s="71">
         <v>4</v>
       </c>
-      <c r="H53" s="85" t="s">
+      <c r="H53" s="75" t="s">
         <v>20</v>
       </c>
       <c r="I53" s="19"/>
     </row>
-    <row r="54" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="81">
+    <row r="54" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="71">
         <v>7</v>
       </c>
-      <c r="B54" s="89" t="s">
+      <c r="B54" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="82" t="s">
+      <c r="C54" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="92" t="s">
+      <c r="D54" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="E54" s="84">
+      <c r="E54" s="74">
         <v>43796</v>
       </c>
-      <c r="F54" s="88">
+      <c r="F54" s="78">
         <v>5</v>
       </c>
-      <c r="G54" s="88">
-        <v>6</v>
-      </c>
-      <c r="H54" s="85" t="s">
+      <c r="G54" s="78">
+        <v>6</v>
+      </c>
+      <c r="H54" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I54" s="91"/>
-    </row>
-    <row r="55" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="81">
+      <c r="I54" s="81"/>
+    </row>
+    <row r="55" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="71">
         <v>7</v>
       </c>
-      <c r="B55" s="89" t="s">
+      <c r="B55" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="82" t="s">
+      <c r="C55" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="92" t="s">
+      <c r="D55" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="E55" s="84">
+      <c r="E55" s="74">
         <v>43797</v>
       </c>
-      <c r="F55" s="88">
-        <v>6</v>
-      </c>
-      <c r="G55" s="81">
-        <v>6</v>
-      </c>
-      <c r="H55" s="85" t="s">
+      <c r="F55" s="78">
+        <v>6</v>
+      </c>
+      <c r="G55" s="71">
+        <v>6</v>
+      </c>
+      <c r="H55" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I55" s="91"/>
-    </row>
-    <row r="56" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="81">
+      <c r="I55" s="81"/>
+    </row>
+    <row r="56" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="71">
         <v>7</v>
       </c>
-      <c r="B56" s="89" t="s">
+      <c r="B56" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="82" t="s">
+      <c r="C56" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="92" t="s">
+      <c r="D56" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="E56" s="84">
+      <c r="E56" s="74">
         <v>43798</v>
       </c>
-      <c r="F56" s="88">
+      <c r="F56" s="78">
         <v>5</v>
       </c>
-      <c r="G56" s="81">
-        <v>6</v>
-      </c>
-      <c r="H56" s="85" t="s">
+      <c r="G56" s="71">
+        <v>6</v>
+      </c>
+      <c r="H56" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I56" s="91"/>
-    </row>
-    <row r="57" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="81">
+      <c r="I56" s="81"/>
+    </row>
+    <row r="57" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="71">
         <v>7</v>
       </c>
-      <c r="B57" s="89" t="s">
+      <c r="B57" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="82" t="s">
+      <c r="C57" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="92" t="s">
+      <c r="D57" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="E57" s="84">
+      <c r="E57" s="74">
         <v>43799</v>
       </c>
-      <c r="F57" s="88">
-        <v>6</v>
-      </c>
-      <c r="G57" s="88">
-        <v>6</v>
-      </c>
-      <c r="H57" s="85" t="s">
+      <c r="F57" s="78">
+        <v>6</v>
+      </c>
+      <c r="G57" s="78">
+        <v>6</v>
+      </c>
+      <c r="H57" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I57" s="91"/>
-    </row>
-    <row r="58" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="94" t="s">
+      <c r="I57" s="81"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="94" t="s">
+      <c r="B58" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="95">
+      <c r="C58" s="97">
         <f>SUM(F52:F57)</f>
         <v>32</v>
       </c>
-      <c r="D58" s="95"/>
-      <c r="E58" s="95"/>
-      <c r="F58" s="96"/>
-      <c r="G58" s="97" t="s">
+      <c r="D58" s="97"/>
+      <c r="E58" s="97"/>
+      <c r="F58" s="98"/>
+      <c r="G58" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="H58" s="95">
+      <c r="H58" s="97">
         <f>SUM(G52:G57)</f>
         <v>34</v>
       </c>
-      <c r="I58" s="96"/>
-    </row>
-    <row r="59" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="80" t="s">
+      <c r="I58" s="98"/>
+    </row>
+    <row r="59" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="80" t="s">
+      <c r="B59" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="80" t="s">
+      <c r="C59" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="80" t="s">
+      <c r="D59" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="80" t="s">
+      <c r="E59" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="80" t="s">
+      <c r="F59" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="H59" s="80" t="s">
+      <c r="G59" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I59" s="80" t="s">
+      <c r="I59" s="70" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="81">
+    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="71">
         <v>8</v>
       </c>
-      <c r="B60" s="82" t="s">
+      <c r="B60" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="82" t="s">
+      <c r="C60" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="102" t="s">
+      <c r="D60" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="E60" s="84">
+      <c r="E60" s="74">
         <v>43801</v>
       </c>
-      <c r="F60" s="81">
+      <c r="F60" s="71">
         <v>5</v>
       </c>
-      <c r="G60" s="81">
-        <v>6</v>
-      </c>
-      <c r="H60" s="85" t="s">
+      <c r="G60" s="71">
+        <v>6</v>
+      </c>
+      <c r="H60" s="75" t="s">
         <v>20</v>
       </c>
       <c r="I60" s="19"/>
     </row>
-    <row r="61" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="81">
+    <row r="61" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="71">
         <v>8</v>
       </c>
-      <c r="B61" s="86" t="s">
+      <c r="B61" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="82" t="s">
+      <c r="C61" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D61" s="83"/>
-      <c r="E61" s="84">
+      <c r="D61" s="73"/>
+      <c r="E61" s="74">
         <v>43802</v>
       </c>
-      <c r="F61" s="81">
+      <c r="F61" s="71">
         <v>4</v>
       </c>
-      <c r="G61" s="81">
+      <c r="G61" s="71">
         <v>4</v>
       </c>
-      <c r="H61" s="85" t="s">
+      <c r="H61" s="75" t="s">
         <v>20</v>
       </c>
       <c r="I61" s="19"/>
     </row>
-    <row r="62" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="81">
+    <row r="62" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="71">
         <v>8</v>
       </c>
-      <c r="B62" s="89" t="s">
+      <c r="B62" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C62" s="82" t="s">
+      <c r="C62" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="92" t="s">
+      <c r="D62" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="E62" s="84">
+      <c r="E62" s="74">
         <v>43803</v>
       </c>
-      <c r="F62" s="88">
+      <c r="F62" s="78">
         <v>5</v>
       </c>
-      <c r="G62" s="88">
-        <v>6</v>
-      </c>
-      <c r="H62" s="85" t="s">
+      <c r="G62" s="78">
+        <v>6</v>
+      </c>
+      <c r="H62" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I62" s="91"/>
-    </row>
-    <row r="63" spans="1:9" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="81">
+      <c r="I62" s="81"/>
+    </row>
+    <row r="63" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="71">
         <v>8</v>
       </c>
-      <c r="B63" s="89" t="s">
+      <c r="B63" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="82" t="s">
+      <c r="C63" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="92" t="s">
+      <c r="D63" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="E63" s="84">
+      <c r="E63" s="74">
         <v>43804</v>
       </c>
-      <c r="F63" s="88">
+      <c r="F63" s="78">
         <v>5</v>
       </c>
-      <c r="G63" s="88">
-        <v>6</v>
-      </c>
-      <c r="H63" s="85" t="s">
+      <c r="G63" s="78">
+        <v>6</v>
+      </c>
+      <c r="H63" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I63" s="91"/>
-    </row>
-    <row r="64" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="81">
+      <c r="I63" s="81"/>
+    </row>
+    <row r="64" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="71">
         <v>8</v>
       </c>
-      <c r="B64" s="89" t="s">
+      <c r="B64" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="82" t="s">
+      <c r="C64" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="92" t="s">
+      <c r="D64" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="E64" s="84">
+      <c r="E64" s="74">
         <v>43805</v>
       </c>
-      <c r="F64" s="88">
+      <c r="F64" s="78">
         <v>5.5</v>
       </c>
-      <c r="G64" s="88">
-        <v>6</v>
-      </c>
-      <c r="H64" s="85" t="s">
+      <c r="G64" s="78">
+        <v>6</v>
+      </c>
+      <c r="H64" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I64" s="91"/>
-    </row>
-    <row r="65" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="81">
+      <c r="I64" s="81"/>
+    </row>
+    <row r="65" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="71">
         <v>8</v>
       </c>
-      <c r="B65" s="89" t="s">
+      <c r="B65" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="82" t="s">
+      <c r="C65" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="92" t="s">
+      <c r="D65" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="E65" s="84">
+      <c r="E65" s="74">
         <v>43806</v>
       </c>
-      <c r="F65" s="88">
+      <c r="F65" s="78">
         <v>5.5</v>
       </c>
-      <c r="G65" s="88">
-        <v>6</v>
-      </c>
-      <c r="H65" s="85" t="s">
+      <c r="G65" s="78">
+        <v>6</v>
+      </c>
+      <c r="H65" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I65" s="91"/>
-    </row>
-    <row r="66" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="94">
+      <c r="I65" s="81"/>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="84">
         <v>8</v>
       </c>
-      <c r="B66" s="94" t="s">
+      <c r="B66" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="95">
+      <c r="C66" s="97">
         <f>SUM(F60:F65)</f>
         <v>30</v>
       </c>
-      <c r="D66" s="95"/>
-      <c r="E66" s="95"/>
-      <c r="F66" s="96"/>
-      <c r="G66" s="97" t="s">
+      <c r="D66" s="97"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="98"/>
+      <c r="G66" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="H66" s="95">
+      <c r="H66" s="97">
         <f>SUM(G60:G65)</f>
         <v>34</v>
       </c>
-      <c r="I66" s="96"/>
-    </row>
-    <row r="67" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="80" t="s">
+      <c r="I66" s="98"/>
+    </row>
+    <row r="67" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B67" s="80" t="s">
+      <c r="B67" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="80" t="s">
+      <c r="C67" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="80" t="s">
+      <c r="D67" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="80" t="s">
+      <c r="E67" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F67" s="80" t="s">
+      <c r="F67" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="H67" s="80" t="s">
+      <c r="G67" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I67" s="80" t="s">
+      <c r="I67" s="70" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="81">
+    <row r="68" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="71">
         <v>9</v>
       </c>
-      <c r="B68" s="82" t="s">
+      <c r="B68" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="82" t="s">
+      <c r="C68" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="102" t="s">
+      <c r="D68" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="E68" s="84">
+      <c r="E68" s="74">
         <v>43808</v>
       </c>
-      <c r="F68" s="81">
-        <v>6</v>
-      </c>
-      <c r="G68" s="81">
-        <v>6</v>
-      </c>
-      <c r="H68" s="85" t="s">
+      <c r="F68" s="71">
+        <v>6</v>
+      </c>
+      <c r="G68" s="71">
+        <v>6</v>
+      </c>
+      <c r="H68" s="75" t="s">
         <v>20</v>
       </c>
       <c r="I68" s="19"/>
     </row>
-    <row r="69" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="81">
+    <row r="69" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="71">
         <v>9</v>
       </c>
-      <c r="B69" s="86" t="s">
+      <c r="B69" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="82" t="s">
+      <c r="C69" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D69" s="83"/>
-      <c r="E69" s="84">
+      <c r="D69" s="73"/>
+      <c r="E69" s="74">
         <v>43809</v>
       </c>
-      <c r="F69" s="81">
+      <c r="F69" s="71">
         <v>4</v>
       </c>
-      <c r="G69" s="81">
+      <c r="G69" s="71">
         <v>4</v>
       </c>
-      <c r="H69" s="85" t="s">
+      <c r="H69" s="75" t="s">
         <v>20</v>
       </c>
       <c r="I69" s="19"/>
     </row>
-    <row r="70" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="81">
+    <row r="70" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="71">
         <v>9</v>
       </c>
-      <c r="B70" s="89" t="s">
+      <c r="B70" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C70" s="82" t="s">
+      <c r="C70" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="92" t="s">
+      <c r="D70" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="E70" s="84">
+      <c r="E70" s="74">
         <v>43810</v>
       </c>
-      <c r="F70" s="88">
-        <v>6</v>
-      </c>
-      <c r="G70" s="88">
-        <v>6</v>
-      </c>
-      <c r="H70" s="85" t="s">
+      <c r="F70" s="78">
+        <v>6</v>
+      </c>
+      <c r="G70" s="78">
+        <v>6</v>
+      </c>
+      <c r="H70" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I70" s="91"/>
-    </row>
-    <row r="71" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="81">
+      <c r="I70" s="81"/>
+    </row>
+    <row r="71" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="71">
         <v>9</v>
       </c>
-      <c r="B71" s="89" t="s">
+      <c r="B71" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="82" t="s">
+      <c r="C71" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="92" t="s">
+      <c r="D71" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="E71" s="84">
+      <c r="E71" s="74">
         <v>43811</v>
       </c>
-      <c r="F71" s="88">
+      <c r="F71" s="78">
         <v>4</v>
       </c>
-      <c r="G71" s="88">
-        <v>6</v>
-      </c>
-      <c r="H71" s="85" t="s">
+      <c r="G71" s="78">
+        <v>6</v>
+      </c>
+      <c r="H71" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I71" s="91"/>
-    </row>
-    <row r="72" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="81">
+      <c r="I71" s="81"/>
+    </row>
+    <row r="72" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="71">
         <v>9</v>
       </c>
-      <c r="B72" s="89" t="s">
+      <c r="B72" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="82" t="s">
+      <c r="C72" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="92" t="s">
+      <c r="D72" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="E72" s="84">
+      <c r="E72" s="74">
         <v>43812</v>
       </c>
-      <c r="F72" s="88">
+      <c r="F72" s="78">
         <v>5.5</v>
       </c>
-      <c r="G72" s="88">
-        <v>6</v>
-      </c>
-      <c r="H72" s="85" t="s">
+      <c r="G72" s="78">
+        <v>6</v>
+      </c>
+      <c r="H72" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I72" s="91"/>
-    </row>
-    <row r="73" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="81">
+      <c r="I72" s="81"/>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="71">
         <v>9</v>
       </c>
-      <c r="B73" s="89" t="s">
+      <c r="B73" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="82" t="s">
+      <c r="C73" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="92" t="s">
+      <c r="D73" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="E73" s="84">
+      <c r="E73" s="74">
         <v>43813</v>
       </c>
-      <c r="F73" s="88">
-        <v>6</v>
-      </c>
-      <c r="G73" s="88">
-        <v>6</v>
-      </c>
-      <c r="H73" s="85" t="s">
+      <c r="F73" s="78">
+        <v>6</v>
+      </c>
+      <c r="G73" s="78">
+        <v>6</v>
+      </c>
+      <c r="H73" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I73" s="91"/>
-    </row>
-    <row r="74" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="94">
+      <c r="I73" s="81"/>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="84">
         <v>9</v>
       </c>
-      <c r="B74" s="94" t="s">
+      <c r="B74" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="95">
+      <c r="C74" s="97">
         <f>SUM(F68:F73)</f>
         <v>31.5</v>
       </c>
-      <c r="D74" s="95"/>
-      <c r="E74" s="95"/>
-      <c r="F74" s="96"/>
-      <c r="G74" s="97" t="s">
+      <c r="D74" s="97"/>
+      <c r="E74" s="97"/>
+      <c r="F74" s="98"/>
+      <c r="G74" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="95">
+      <c r="H74" s="97">
         <f>SUM(G68:G73)</f>
         <v>34</v>
       </c>
-      <c r="I74" s="96"/>
-    </row>
-    <row r="75" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="80" t="s">
+      <c r="I74" s="98"/>
+    </row>
+    <row r="75" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="80" t="s">
+      <c r="B75" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="80" t="s">
+      <c r="C75" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="D75" s="80" t="s">
+      <c r="D75" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="80" t="s">
+      <c r="E75" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F75" s="80" t="s">
+      <c r="F75" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G75" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="H75" s="80" t="s">
+      <c r="G75" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I75" s="80" t="s">
+      <c r="I75" s="70" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="81">
+    <row r="76" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="71">
         <v>10</v>
       </c>
-      <c r="B76" s="82" t="s">
+      <c r="B76" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="82" t="s">
+      <c r="C76" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="102" t="s">
+      <c r="D76" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="E76" s="84">
+      <c r="E76" s="74">
         <v>43815</v>
       </c>
-      <c r="F76" s="81">
-        <v>6</v>
-      </c>
-      <c r="G76" s="81">
-        <v>6</v>
-      </c>
-      <c r="H76" s="85" t="s">
+      <c r="F76" s="71">
+        <v>6</v>
+      </c>
+      <c r="G76" s="71">
+        <v>6</v>
+      </c>
+      <c r="H76" s="75" t="s">
         <v>20</v>
       </c>
       <c r="I76" s="19"/>
     </row>
-    <row r="77" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="81">
+    <row r="77" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="71">
         <v>10</v>
       </c>
-      <c r="B77" s="86" t="s">
+      <c r="B77" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="82" t="s">
+      <c r="C77" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D77" s="100"/>
-      <c r="E77" s="84">
+      <c r="D77" s="87"/>
+      <c r="E77" s="74">
         <v>43816</v>
       </c>
-      <c r="F77" s="81">
+      <c r="F77" s="71">
         <v>4</v>
       </c>
-      <c r="G77" s="81">
+      <c r="G77" s="71">
         <v>4</v>
       </c>
-      <c r="H77" s="85" t="s">
+      <c r="H77" s="75" t="s">
         <v>20</v>
       </c>
       <c r="I77" s="19"/>
     </row>
-    <row r="78" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="81">
+    <row r="78" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="71">
         <v>10</v>
       </c>
-      <c r="B78" s="89" t="s">
+      <c r="B78" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="82" t="s">
+      <c r="C78" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="92" t="s">
+      <c r="D78" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="E78" s="84">
+      <c r="E78" s="74">
         <v>43817</v>
       </c>
-      <c r="F78" s="88">
-        <v>6</v>
-      </c>
-      <c r="G78" s="88">
-        <v>6</v>
-      </c>
-      <c r="H78" s="85" t="s">
+      <c r="F78" s="78">
+        <v>6</v>
+      </c>
+      <c r="G78" s="78">
+        <v>6</v>
+      </c>
+      <c r="H78" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I78" s="91"/>
-    </row>
-    <row r="79" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="81">
+      <c r="I78" s="81"/>
+    </row>
+    <row r="79" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="71">
         <v>10</v>
       </c>
-      <c r="B79" s="89" t="s">
+      <c r="B79" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="82" t="s">
+      <c r="C79" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="103" t="s">
+      <c r="D79" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="E79" s="84">
+      <c r="E79" s="74">
         <v>43818</v>
       </c>
-      <c r="F79" s="88">
+      <c r="F79" s="78">
         <v>4</v>
       </c>
-      <c r="G79" s="88">
+      <c r="G79" s="78">
         <v>4</v>
       </c>
-      <c r="H79" s="85" t="s">
+      <c r="H79" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I79" s="91"/>
-    </row>
-    <row r="80" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="81">
+      <c r="I79" s="81"/>
+    </row>
+    <row r="80" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="71">
         <v>10</v>
       </c>
-      <c r="B80" s="89" t="s">
+      <c r="B80" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="82" t="s">
+      <c r="C80" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="92" t="s">
+      <c r="D80" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="E80" s="84">
+      <c r="E80" s="74">
         <v>43819</v>
       </c>
-      <c r="F80" s="88">
+      <c r="F80" s="78">
         <v>5.5</v>
       </c>
-      <c r="G80" s="88">
+      <c r="G80" s="78">
         <v>5.5</v>
       </c>
-      <c r="H80" s="85" t="s">
+      <c r="H80" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I80" s="91"/>
-    </row>
-    <row r="81" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="81">
+      <c r="I80" s="81"/>
+    </row>
+    <row r="81" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="71">
         <v>10</v>
       </c>
-      <c r="B81" s="89" t="s">
+      <c r="B81" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C81" s="82" t="s">
+      <c r="C81" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="92" t="s">
+      <c r="D81" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="E81" s="84">
+      <c r="E81" s="74">
         <v>43820</v>
       </c>
-      <c r="F81" s="88">
-        <v>6</v>
-      </c>
-      <c r="G81" s="88">
-        <v>6</v>
-      </c>
-      <c r="H81" s="85" t="s">
+      <c r="F81" s="78">
+        <v>6</v>
+      </c>
+      <c r="G81" s="78">
+        <v>6</v>
+      </c>
+      <c r="H81" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I81" s="91"/>
-    </row>
-    <row r="82" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="94">
+      <c r="I81" s="81"/>
+    </row>
+    <row r="82" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="84">
         <v>10</v>
       </c>
-      <c r="B82" s="94" t="s">
+      <c r="B82" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="95">
+      <c r="C82" s="97">
         <f>SUM(F76:F81)</f>
         <v>31.5</v>
       </c>
-      <c r="D82" s="95"/>
-      <c r="E82" s="95"/>
-      <c r="F82" s="96"/>
-      <c r="G82" s="97" t="s">
+      <c r="D82" s="97"/>
+      <c r="E82" s="97"/>
+      <c r="F82" s="98"/>
+      <c r="G82" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="H82" s="95">
+      <c r="H82" s="97">
         <f>SUM(G76:G81)</f>
         <v>31.5</v>
       </c>
-      <c r="I82" s="96"/>
+      <c r="I82" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
     <mergeCell ref="C82:F82"/>
     <mergeCell ref="H82:I82"/>
     <mergeCell ref="C58:F58"/>
@@ -6925,19 +6944,6 @@
     <mergeCell ref="H66:I66"/>
     <mergeCell ref="C74:F74"/>
     <mergeCell ref="H74:I74"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H9 H12:H17 H52:H57 H28:H33 H36:H41 H44:H49 H68:H73 H76:H81 H20:H25 H60:H65" xr:uid="{7F813E7D-E9CF-5A4B-BCFE-F7A8C8AE33A7}">
